--- a/CentralizedConfigData/Host.xlsx
+++ b/CentralizedConfigData/Host.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\HostMonitor\ConfigData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\HostMonitor\CentralizedConfigData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AA9D08-2EFE-4F59-9EC4-A80F0D33F3F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB197B21-B31C-4858-B4CB-39990B34CE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ip</t>
   </si>
@@ -43,22 +43,20 @@
     <t>VX117Halo</t>
   </si>
   <si>
-    <t>192.168.1.74</t>
-  </si>
-  <si>
-    <t>rzx</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>192.168.1.75</t>
-  </si>
-  <si>
-    <t>192.168.1.76</t>
-  </si>
-  <si>
-    <t>192.168.1.77</t>
+    <t>10.17.16.188</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.3.114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -129,12 +127,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,53 +500,25 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="C3" s="2">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C4" s="2">
+        <v>123456</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
